--- a/document/测试/chatbot聊天机器.xlsx
+++ b/document/测试/chatbot聊天机器.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheever/Desktop/ATSC3.0/B2郪ATSC3.0鎢霜煦昴馱撿羲楷-聆彸蚚瞰/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenshu.zhu\Desktop\聊天机器人\project\robochat\document\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831228D-8194-F949-8F14-26AA32C38F06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25140" windowHeight="18660" tabRatio="436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25140" windowHeight="18660" tabRatio="436" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="3" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="411">
   <si>
     <t>音乐播放器功能测试清单</t>
   </si>
@@ -35,6 +34,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文档版</t>
@@ -43,6 +43,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>本</t>
@@ -65,6 +66,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>拟制人</t>
@@ -81,6 +83,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>编写人</t>
@@ -97,6 +100,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>修订者</t>
@@ -123,6 +127,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>多媒体全球产品中心</t>
@@ -141,6 +146,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>发布时间：</t>
@@ -159,6 +165,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -177,6 +184,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -195,6 +203,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -213,6 +222,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用例</t>
@@ -222,6 +232,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>版本号：</t>
@@ -252,6 +263,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>应用商店测试用例</t>
@@ -288,6 +300,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>版本号</t>
@@ -373,6 +386,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.</t>
@@ -382,6 +396,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">可以正常完成升级，升级后可以正常进入
@@ -392,6 +407,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2.</t>
@@ -401,6 +417,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>升级过程中，显示升级进度条</t>
@@ -435,6 +452,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -444,6 +462,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击进入应用商店
@@ -494,6 +513,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -503,6 +523,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.打开应用商店首页
@@ -525,6 +546,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -534,6 +556,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.打开应用商店首页
@@ -599,6 +622,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -608,6 +632,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.当光标一直放在某个应用时，信息不会刷新。
@@ -620,6 +645,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>主题专区-</t>
@@ -629,6 +655,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-合作专区</t>
@@ -869,6 +896,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.当新品上架过了</t>
@@ -878,6 +906,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一定的时间</t>
@@ -887,6 +916,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>后，该应用就会自动离开。</t>
@@ -909,6 +939,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -918,6 +949,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.“热门排行”显示由后台根据商品销售和上架时间综合计算后自动排序的应用，管理员可以人工干预。排行榜显示排行前100位的应用，前10位的应用前显示数字排名。</t>
@@ -1008,6 +1040,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1017,6 +1050,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.打开应用商店首页。
@@ -1030,6 +1064,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1039,6 +1074,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.应用详情分为三部分：左边为应用名称、下载和分享。中间为应用的信息简介和用户评论。右边为相关应用推荐。</t>
@@ -1061,6 +1097,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1070,6 +1107,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击下载时，应下载到flash空间，如果flash空间不足，应提示“请插入SD卡”。</t>
@@ -1084,6 +1122,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下载-</t>
@@ -1093,6 +1132,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>SD卡空间不足</t>
@@ -1153,6 +1193,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1162,6 +1203,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击“运行”时，应用能正常启动。</t>
@@ -1215,6 +1257,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1224,6 +1267,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.点击“卸载”按钮及输入卸载理由后，能正常卸载应用。</t>
@@ -1277,6 +1321,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1286,6 +1331,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.最多不能超过一屏推荐应用。</t>
@@ -1314,6 +1360,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1323,6 +1370,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.用户的所有信息都能正常显示</t>
@@ -1359,6 +1407,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1368,6 +1417,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.用户账户能被删除。</t>
@@ -1390,6 +1440,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1399,6 +1450,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.能正常注册新账户。</t>
@@ -1839,6 +1891,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1848,6 +1901,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.连接网络
@@ -1973,6 +2027,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>各种升级的种类，是否正常？（静默，强制，可选）</t>
@@ -2002,6 +2057,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上报欢网信息，例如次数，等是否正确？</t>
@@ -2031,6 +2087,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>按照</t>
@@ -2069,6 +2126,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>预装应用的升级</t>
@@ -2098,6 +2156,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>程序商店自身的升级</t>
@@ -2127,6 +2186,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二期三期平台的顺利迁移升级（</t>
@@ -2145,6 +2205,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的顺利升级）</t>
@@ -2174,6 +2235,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>关联</t>
@@ -2192,6 +2254,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的升级</t>
@@ -2221,6 +2284,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>后台批量安装功能的验证</t>
@@ -2250,6 +2314,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>第三方升级应用的发现，上报</t>
@@ -2279,6 +2344,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>与游戏大厅，语音助手，</t>
@@ -2297,6 +2363,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>等等的关系</t>
@@ -2326,6 +2393,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>横竖屏的验证</t>
@@ -2355,6 +2423,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>广告功能的验证</t>
@@ -2384,6 +2453,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>强制卸载功能的验证。</t>
@@ -2413,6 +2483,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交互式设备的属性等</t>
@@ -2433,6 +2504,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>建议以下还有可能有些补充：</t>
@@ -2453,6 +2525,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>与多屏互动，消息盒子之间的交互</t>
@@ -2471,6 +2544,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>现在应用商店与其它应用交互比较多，建议一起测试</t>
@@ -2489,6 +2563,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -2509,6 +2584,7 @@
         <sz val="10.5"/>
         <color indexed="62"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>现在有些界面是可配置的，比如：所有应用的分类个数，合作专区个数。在测试的一段时间内，估计后台数据不会改变，这个可能需要欢网配合，多换几次数据，估计以后才敢动态添加分类。</t>
@@ -2518,32 +2594,84 @@
     <t>模块</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>Chatbot聊天机器人-001</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
     <t>Chatbot聊天机器人-002</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>聊天机器人软件测试清单</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chatbot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聊天机器人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人serve</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开postman 后端服务启动</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开postman 后端服务启动</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>postman选取post方式body添加json数据,数据内容为歌曲内容</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回json中技能为音乐，内容中的music对象不为空，词义中含有歌曲或歌手</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>postman选取post方式body添加json数据,数据内容非歌曲匹配内容</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回json中技能为聊天，内容为聊天接口返回内容，内容中的music为空。</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern算法，歌词接口</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern算法，闲聊接口</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2708,19 +2836,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -2733,28 +2848,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color indexed="62"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -2772,6 +2869,61 @@
       <name val="Wawati TC"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3016,11 +3168,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3155,7 +3307,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3221,14 +3373,14 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3276,12 +3428,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="貨幣" xfId="1" builtinId="4"/>
-    <cellStyle name="货币 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="货币 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="货币 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
+    <cellStyle name="货币 2" xfId="5"/>
+    <cellStyle name="货币 2 2" xfId="2"/>
+    <cellStyle name="货币 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3854,14 +4006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="29" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="29" customWidth="1"/>
@@ -3907,7 +4059,7 @@
     </row>
     <row r="4" spans="1:8" ht="48.75" customHeight="1">
       <c r="A4" s="55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -4125,7 +4277,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:F4"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -4134,14 +4286,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="29" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="29" customWidth="1"/>
@@ -4155,7 +4307,7 @@
     <col min="33" max="16384" width="8.6640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="57" t="s">
         <v>4</v>
       </c>
@@ -4165,7 +4317,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="59"/>
     </row>
-    <row r="3" spans="1:9" s="28" customFormat="1">
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="16">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4383,7 @@
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
       <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -4239,7 +4391,7 @@
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -4247,7 +4399,7 @@
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
       <c r="D11" s="66"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -4255,7 +4407,7 @@
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
       <c r="D12" s="66"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4263,7 +4415,7 @@
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
       <c r="D13" s="66"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4271,7 +4423,7 @@
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
       <c r="D14" s="66"/>
-      <c r="E14" s="68"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="35"/>
     </row>
   </sheetData>
@@ -4290,7 +4442,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -4298,14 +4450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N122"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="11" customWidth="1"/>
@@ -4384,7 +4536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15">
+    <row r="6" spans="2:14" ht="13">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -4397,7 +4549,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="2:14" ht="45">
+    <row r="7" spans="2:14" ht="39">
       <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
@@ -4416,7 +4568,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="2:14" ht="45">
+    <row r="8" spans="2:14" ht="39">
       <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
@@ -4435,7 +4587,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:14" ht="45">
+    <row r="9" spans="2:14" ht="39">
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
@@ -4454,7 +4606,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="2:14" ht="45">
+    <row r="10" spans="2:14" ht="39">
       <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
@@ -4473,7 +4625,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:14" ht="30">
+    <row r="11" spans="2:14" ht="26">
       <c r="B11" s="15" t="s">
         <v>37</v>
       </c>
@@ -4530,7 +4682,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="2:14" ht="15">
+    <row r="14" spans="2:14" ht="13">
       <c r="B14" s="17">
         <v>2</v>
       </c>
@@ -4543,7 +4695,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="2:14" ht="45">
+    <row r="15" spans="2:14" ht="39">
       <c r="B15" s="15" t="s">
         <v>51</v>
       </c>
@@ -4562,7 +4714,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="2:14" ht="45">
+    <row r="16" spans="2:14" ht="39">
       <c r="B16" s="15" t="s">
         <v>55</v>
       </c>
@@ -4581,7 +4733,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="2:8" ht="45">
+    <row r="17" spans="2:8" ht="39">
       <c r="B17" s="15" t="s">
         <v>59</v>
       </c>
@@ -4600,7 +4752,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="2:8" ht="45">
+    <row r="18" spans="2:8" ht="39">
       <c r="B18" s="15" t="s">
         <v>63</v>
       </c>
@@ -4619,7 +4771,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="2:8" ht="45">
+    <row r="19" spans="2:8" ht="39">
       <c r="B19" s="15" t="s">
         <v>67</v>
       </c>
@@ -4638,7 +4790,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="2:8" ht="45">
+    <row r="20" spans="2:8" ht="39">
       <c r="B20" s="15" t="s">
         <v>71</v>
       </c>
@@ -4657,7 +4809,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="2:8" ht="15">
+    <row r="21" spans="2:8" ht="13">
       <c r="B21" s="17">
         <v>3</v>
       </c>
@@ -4670,7 +4822,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="2:8" ht="45">
+    <row r="22" spans="2:8" ht="39">
       <c r="B22" s="15" t="s">
         <v>75</v>
       </c>
@@ -4689,7 +4841,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="2:8" ht="45">
+    <row r="23" spans="2:8" ht="39">
       <c r="B23" s="15" t="s">
         <v>79</v>
       </c>
@@ -4708,7 +4860,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="2:8" ht="45">
+    <row r="24" spans="2:8" ht="39">
       <c r="B24" s="15" t="s">
         <v>83</v>
       </c>
@@ -4727,7 +4879,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="2:8" ht="45">
+    <row r="25" spans="2:8" ht="39">
       <c r="B25" s="15" t="s">
         <v>87</v>
       </c>
@@ -4746,7 +4898,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="2:8" ht="45">
+    <row r="26" spans="2:8" ht="39">
       <c r="B26" s="15" t="s">
         <v>91</v>
       </c>
@@ -4765,7 +4917,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="2:8" ht="45">
+    <row r="27" spans="2:8" ht="39">
       <c r="B27" s="15" t="s">
         <v>95</v>
       </c>
@@ -4784,7 +4936,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="2:8" ht="60">
+    <row r="28" spans="2:8" ht="52">
       <c r="B28" s="15" t="s">
         <v>99</v>
       </c>
@@ -4803,7 +4955,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="2:8" ht="45">
+    <row r="29" spans="2:8" ht="39">
       <c r="B29" s="15" t="s">
         <v>103</v>
       </c>
@@ -4822,7 +4974,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="2:8" ht="15">
+    <row r="30" spans="2:8" ht="13">
       <c r="B30" s="17">
         <v>4</v>
       </c>
@@ -4835,7 +4987,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="2:8" ht="45">
+    <row r="31" spans="2:8" ht="39">
       <c r="B31" s="15" t="s">
         <v>108</v>
       </c>
@@ -4854,7 +5006,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="2:8" ht="45">
+    <row r="32" spans="2:8" ht="39">
       <c r="B32" s="15" t="s">
         <v>112</v>
       </c>
@@ -4873,7 +5025,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="2:8" ht="45">
+    <row r="33" spans="2:8" ht="39">
       <c r="B33" s="15" t="s">
         <v>116</v>
       </c>
@@ -4892,7 +5044,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="2:8" ht="60">
+    <row r="34" spans="2:8" ht="52">
       <c r="B34" s="15" t="s">
         <v>120</v>
       </c>
@@ -4911,7 +5063,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="2:8" ht="15">
+    <row r="35" spans="2:8" ht="13">
       <c r="B35" s="17">
         <v>5</v>
       </c>
@@ -4924,7 +5076,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="2:8" ht="45">
+    <row r="36" spans="2:8" ht="39">
       <c r="B36" s="15" t="s">
         <v>125</v>
       </c>
@@ -4943,7 +5095,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="2:8" ht="45">
+    <row r="37" spans="2:8" ht="39">
       <c r="B37" s="15" t="s">
         <v>129</v>
       </c>
@@ -4962,7 +5114,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="2:8" ht="45">
+    <row r="38" spans="2:8" ht="39">
       <c r="B38" s="15" t="s">
         <v>133</v>
       </c>
@@ -4981,7 +5133,7 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" ht="45">
+    <row r="39" spans="2:8" ht="39">
       <c r="B39" s="15" t="s">
         <v>137</v>
       </c>
@@ -5000,7 +5152,7 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="2:8" ht="60">
+    <row r="40" spans="2:8" ht="52">
       <c r="B40" s="15" t="s">
         <v>141</v>
       </c>
@@ -5019,7 +5171,7 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="2:8" ht="15">
+    <row r="41" spans="2:8" ht="13">
       <c r="B41" s="17">
         <v>6</v>
       </c>
@@ -5032,7 +5184,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" spans="2:8" ht="45">
+    <row r="42" spans="2:8" ht="39">
       <c r="B42" s="15" t="s">
         <v>146</v>
       </c>
@@ -5051,7 +5203,7 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="2:8" ht="45">
+    <row r="43" spans="2:8" ht="39">
       <c r="B43" s="15" t="s">
         <v>150</v>
       </c>
@@ -5070,7 +5222,7 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="2:8" ht="45">
+    <row r="44" spans="2:8" ht="39">
       <c r="B44" s="15" t="s">
         <v>154</v>
       </c>
@@ -5089,7 +5241,7 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="2:8" ht="45">
+    <row r="45" spans="2:8" ht="39">
       <c r="B45" s="15" t="s">
         <v>157</v>
       </c>
@@ -5108,7 +5260,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="2:8" ht="45">
+    <row r="46" spans="2:8" ht="39">
       <c r="B46" s="15" t="s">
         <v>161</v>
       </c>
@@ -5127,7 +5279,7 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="2:8" ht="15">
+    <row r="47" spans="2:8" ht="13">
       <c r="B47" s="17">
         <v>7</v>
       </c>
@@ -5140,7 +5292,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="2:8" ht="45">
+    <row r="48" spans="2:8" ht="39">
       <c r="B48" s="15" t="s">
         <v>166</v>
       </c>
@@ -5159,7 +5311,7 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="2:8" ht="45">
+    <row r="49" spans="2:8" ht="39">
       <c r="B49" s="15" t="s">
         <v>170</v>
       </c>
@@ -5178,7 +5330,7 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="2:8" ht="60">
+    <row r="50" spans="2:8" ht="52">
       <c r="B50" s="15" t="s">
         <v>174</v>
       </c>
@@ -5197,7 +5349,7 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="2:8" ht="60">
+    <row r="51" spans="2:8" ht="52">
       <c r="B51" s="15" t="s">
         <v>178</v>
       </c>
@@ -5216,7 +5368,7 @@
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="2:8" ht="45">
+    <row r="52" spans="2:8" ht="39">
       <c r="B52" s="15" t="s">
         <v>182</v>
       </c>
@@ -5235,7 +5387,7 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="2:8" ht="45">
+    <row r="53" spans="2:8" ht="39">
       <c r="B53" s="15" t="s">
         <v>186</v>
       </c>
@@ -5254,7 +5406,7 @@
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="2:8" ht="75">
+    <row r="54" spans="2:8" ht="65">
       <c r="B54" s="15" t="s">
         <v>190</v>
       </c>
@@ -5273,7 +5425,7 @@
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="2:8" ht="75">
+    <row r="55" spans="2:8" ht="65">
       <c r="B55" s="15" t="s">
         <v>194</v>
       </c>
@@ -5292,7 +5444,7 @@
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="2:8" ht="60">
+    <row r="56" spans="2:8" ht="52">
       <c r="B56" s="15" t="s">
         <v>198</v>
       </c>
@@ -5311,7 +5463,7 @@
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="2:8" ht="60">
+    <row r="57" spans="2:8" ht="52">
       <c r="B57" s="15" t="s">
         <v>202</v>
       </c>
@@ -5330,7 +5482,7 @@
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="2:8" ht="45">
+    <row r="58" spans="2:8" ht="39">
       <c r="B58" s="15" t="s">
         <v>206</v>
       </c>
@@ -5349,7 +5501,7 @@
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="2:8" ht="60">
+    <row r="59" spans="2:8" ht="52">
       <c r="B59" s="15" t="s">
         <v>210</v>
       </c>
@@ -5368,7 +5520,7 @@
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="2:8" ht="15">
+    <row r="60" spans="2:8" ht="13">
       <c r="B60" s="19">
         <v>8</v>
       </c>
@@ -5381,7 +5533,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="2:8" ht="45">
+    <row r="61" spans="2:8" ht="39">
       <c r="B61" s="15" t="s">
         <v>215</v>
       </c>
@@ -5400,7 +5552,7 @@
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
     </row>
-    <row r="62" spans="2:8" ht="45">
+    <row r="62" spans="2:8" ht="39">
       <c r="B62" s="15" t="s">
         <v>220</v>
       </c>
@@ -5419,7 +5571,7 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="2:8" ht="45">
+    <row r="63" spans="2:8" ht="39">
       <c r="B63" s="15" t="s">
         <v>224</v>
       </c>
@@ -5438,7 +5590,7 @@
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" spans="2:8" ht="45">
+    <row r="64" spans="2:8" ht="39">
       <c r="B64" s="15" t="s">
         <v>228</v>
       </c>
@@ -5457,7 +5609,7 @@
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
     </row>
-    <row r="65" spans="2:8" ht="60">
+    <row r="65" spans="2:8" ht="52">
       <c r="B65" s="15" t="s">
         <v>232</v>
       </c>
@@ -5476,7 +5628,7 @@
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
     </row>
-    <row r="66" spans="2:8" ht="15">
+    <row r="66" spans="2:8" ht="13">
       <c r="B66" s="17">
         <v>9</v>
       </c>
@@ -5489,7 +5641,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="2:8" ht="75">
+    <row r="67" spans="2:8" ht="65">
       <c r="B67" s="15" t="s">
         <v>237</v>
       </c>
@@ -5508,7 +5660,7 @@
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
     </row>
-    <row r="68" spans="2:8" ht="60">
+    <row r="68" spans="2:8" ht="52">
       <c r="B68" s="15" t="s">
         <v>242</v>
       </c>
@@ -5527,7 +5679,7 @@
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
     </row>
-    <row r="69" spans="2:8" ht="60">
+    <row r="69" spans="2:8" ht="52">
       <c r="B69" s="15" t="s">
         <v>246</v>
       </c>
@@ -5546,7 +5698,7 @@
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
     </row>
-    <row r="70" spans="2:8" ht="60">
+    <row r="70" spans="2:8" ht="52">
       <c r="B70" s="15" t="s">
         <v>250</v>
       </c>
@@ -5565,7 +5717,7 @@
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
     </row>
-    <row r="71" spans="2:8" ht="60">
+    <row r="71" spans="2:8" ht="52">
       <c r="B71" s="15" t="s">
         <v>254</v>
       </c>
@@ -5584,7 +5736,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
     </row>
-    <row r="72" spans="2:8" ht="60">
+    <row r="72" spans="2:8" ht="52">
       <c r="B72" s="15" t="s">
         <v>258</v>
       </c>
@@ -5603,7 +5755,7 @@
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="2:8" ht="45">
+    <row r="73" spans="2:8" ht="39">
       <c r="B73" s="15" t="s">
         <v>261</v>
       </c>
@@ -5622,7 +5774,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="2:8" ht="45">
+    <row r="74" spans="2:8" ht="39">
       <c r="B74" s="15" t="s">
         <v>265</v>
       </c>
@@ -5641,7 +5793,7 @@
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="2:8" ht="60">
+    <row r="75" spans="2:8" ht="52">
       <c r="B75" s="15" t="s">
         <v>268</v>
       </c>
@@ -5660,7 +5812,7 @@
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
     </row>
-    <row r="76" spans="2:8" ht="15">
+    <row r="76" spans="2:8" ht="13">
       <c r="B76" s="17">
         <v>10</v>
       </c>
@@ -5673,7 +5825,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" spans="2:8" ht="60">
+    <row r="77" spans="2:8" ht="52">
       <c r="B77" s="15" t="s">
         <v>273</v>
       </c>
@@ -5692,7 +5844,7 @@
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="2:8" ht="60">
+    <row r="78" spans="2:8" ht="52">
       <c r="B78" s="15" t="s">
         <v>278</v>
       </c>
@@ -5711,7 +5863,7 @@
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="2:8" ht="60">
+    <row r="79" spans="2:8" ht="52">
       <c r="B79" s="15" t="s">
         <v>282</v>
       </c>
@@ -5730,7 +5882,7 @@
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
     </row>
-    <row r="80" spans="2:8" ht="60">
+    <row r="80" spans="2:8" ht="52">
       <c r="B80" s="15" t="s">
         <v>286</v>
       </c>
@@ -5749,7 +5901,7 @@
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
     </row>
-    <row r="81" spans="2:8" ht="15">
+    <row r="81" spans="2:8" ht="13">
       <c r="B81" s="22">
         <v>11</v>
       </c>
@@ -5762,7 +5914,7 @@
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
     </row>
-    <row r="82" spans="2:8" ht="45">
+    <row r="82" spans="2:8" ht="39">
       <c r="B82" s="15" t="s">
         <v>291</v>
       </c>
@@ -5781,7 +5933,7 @@
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
     </row>
-    <row r="83" spans="2:8" ht="45">
+    <row r="83" spans="2:8" ht="39">
       <c r="B83" s="15" t="s">
         <v>296</v>
       </c>
@@ -5800,7 +5952,7 @@
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
     </row>
-    <row r="84" spans="2:8" ht="45">
+    <row r="84" spans="2:8" ht="39">
       <c r="B84" s="15" t="s">
         <v>300</v>
       </c>
@@ -5819,7 +5971,7 @@
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="2:8" ht="45">
+    <row r="85" spans="2:8" ht="39">
       <c r="B85" s="15" t="s">
         <v>304</v>
       </c>
@@ -5838,7 +5990,7 @@
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="2:8" ht="15">
+    <row r="86" spans="2:8" ht="13.5">
       <c r="B86" s="17">
         <v>12</v>
       </c>
@@ -5851,7 +6003,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
     </row>
-    <row r="87" spans="2:8" ht="60">
+    <row r="87" spans="2:8" ht="54">
       <c r="B87" s="15" t="s">
         <v>309</v>
       </c>
@@ -5870,7 +6022,7 @@
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
     </row>
-    <row r="88" spans="2:8" ht="60">
+    <row r="88" spans="2:8" ht="54">
       <c r="B88" s="15" t="s">
         <v>314</v>
       </c>
@@ -5889,7 +6041,7 @@
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
     </row>
-    <row r="89" spans="2:8" ht="60">
+    <row r="89" spans="2:8" ht="54">
       <c r="B89" s="15" t="s">
         <v>318</v>
       </c>
@@ -5908,7 +6060,7 @@
       <c r="G89" s="26"/>
       <c r="H89" s="26"/>
     </row>
-    <row r="90" spans="2:8" ht="60">
+    <row r="90" spans="2:8" ht="54">
       <c r="B90" s="15" t="s">
         <v>322</v>
       </c>
@@ -5927,7 +6079,7 @@
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="2:8" ht="60">
+    <row r="91" spans="2:8" ht="54">
       <c r="B91" s="15" t="s">
         <v>326</v>
       </c>
@@ -5946,7 +6098,7 @@
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" spans="2:8" ht="60">
+    <row r="92" spans="2:8" ht="54">
       <c r="B92" s="15" t="s">
         <v>330</v>
       </c>
@@ -5965,7 +6117,7 @@
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
     </row>
-    <row r="93" spans="2:8" ht="60">
+    <row r="93" spans="2:8" ht="54">
       <c r="B93" s="15" t="s">
         <v>334</v>
       </c>
@@ -5984,7 +6136,7 @@
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="2:8" ht="60">
+    <row r="94" spans="2:8" ht="54">
       <c r="B94" s="15" t="s">
         <v>336</v>
       </c>
@@ -6003,7 +6155,7 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="2:8" ht="60">
+    <row r="95" spans="2:8" ht="54">
       <c r="B95" s="15" t="s">
         <v>340</v>
       </c>
@@ -6022,7 +6174,7 @@
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="2:8" ht="15">
+    <row r="96" spans="2:8" ht="13">
       <c r="B96" s="17">
         <v>13</v>
       </c>
@@ -6054,7 +6206,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
     </row>
-    <row r="98" spans="2:8" ht="30">
+    <row r="98" spans="2:8" ht="26">
       <c r="B98" s="15" t="s">
         <v>349</v>
       </c>
@@ -6073,7 +6225,7 @@
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="2:8" ht="30">
+    <row r="99" spans="2:8" ht="26">
       <c r="B99" s="15" t="s">
         <v>354</v>
       </c>
@@ -6092,7 +6244,7 @@
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
     </row>
-    <row r="100" spans="2:8" ht="15">
+    <row r="100" spans="2:8" ht="13.5">
       <c r="B100" s="17">
         <v>14</v>
       </c>
@@ -6105,7 +6257,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
     </row>
-    <row r="101" spans="2:8" ht="60">
+    <row r="101" spans="2:8" ht="54">
       <c r="B101" s="15" t="s">
         <v>359</v>
       </c>
@@ -6124,7 +6276,7 @@
       <c r="G101" s="24"/>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="2:8" ht="75">
+    <row r="102" spans="2:8" ht="67.5">
       <c r="B102" s="15" t="s">
         <v>363</v>
       </c>
@@ -6143,7 +6295,7 @@
       <c r="G102" s="24"/>
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="30">
+    <row r="103" spans="2:8" ht="27">
       <c r="B103" s="15" t="s">
         <v>368</v>
       </c>
@@ -6162,7 +6314,7 @@
       <c r="G103" s="24"/>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="45">
+    <row r="104" spans="2:8" ht="40.5">
       <c r="B104" s="15" t="s">
         <v>373</v>
       </c>
@@ -6181,7 +6333,7 @@
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
     </row>
-    <row r="105" spans="2:8" ht="60">
+    <row r="105" spans="2:8" ht="54">
       <c r="B105" s="15" t="s">
         <v>377</v>
       </c>
@@ -6200,87 +6352,87 @@
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
     </row>
-    <row r="106" spans="2:8" ht="31">
+    <row r="106" spans="2:8" ht="28">
       <c r="C106" s="27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="31">
+    <row r="107" spans="2:8" ht="14.5">
       <c r="C107" s="27" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="16">
+    <row r="108" spans="2:8" ht="14.5">
       <c r="C108" s="27" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="16">
+    <row r="109" spans="2:8" ht="14.5">
       <c r="C109" s="27" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="16">
+    <row r="110" spans="2:8" ht="14.5">
       <c r="C110" s="27" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="32">
+    <row r="111" spans="2:8" ht="29">
       <c r="C111" s="27" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="16">
+    <row r="112" spans="2:8" ht="14.5">
       <c r="C112" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="16">
+    <row r="113" spans="3:3" ht="14.5">
       <c r="C113" s="27" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="16">
+    <row r="114" spans="3:3" ht="14.5">
       <c r="C114" s="27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="3:3" ht="31">
+    <row r="115" spans="3:3" ht="28">
       <c r="C115" s="27" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="16">
+    <row r="116" spans="3:3" ht="14.5">
       <c r="C116" s="27" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="16">
+    <row r="117" spans="3:3" ht="14.5">
       <c r="C117" s="27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="3:3" ht="16">
+    <row r="118" spans="3:3" ht="14.5">
       <c r="C118" s="27" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="16">
+    <row r="119" spans="3:3" ht="14.5">
       <c r="C119" s="27" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="16">
+    <row r="120" spans="3:3" ht="14.5">
       <c r="C120" s="27" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="3:3" ht="47">
+    <row r="121" spans="3:3" ht="42.5">
       <c r="C121" s="27" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="76">
+    <row r="122" spans="3:3" ht="68.5">
       <c r="C122" s="27" t="s">
         <v>397</v>
       </c>
@@ -6291,9 +6443,9 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G82 G96:G99" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G82 G96:G99">
       <formula1>"通过,不通过,不适用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6303,14 +6455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
@@ -6350,32 +6502,46 @@
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="80"/>
+        <v>401</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>402</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>399</v>
-      </c>
+      <c r="D2" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>399</v>
-      </c>
+      <c r="D3" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1">
@@ -6689,8 +6855,8 @@
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B24"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>